--- a/Cas9 crRNA Finder for Clean KO/alkB_crRNA_final.xlsx
+++ b/Cas9 crRNA Finder for Clean KO/alkB_crRNA_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>seed</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>off_target</t>
         </is>
       </c>
@@ -451,10 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>TTTATTTGTTTGCGGATCAA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>TGCGGATCAA</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -464,10 +474,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CGACATGGTATATCCCCCGG</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>TATCCCCCGG</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -477,10 +492,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ATCCCCCGGGGGTGACCATC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>GGTGACCATC</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -490,10 +510,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>ACCGTGGCAAGAGCCACTGG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>GAGCCACTGG</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -503,10 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>GGCCACGGTTTATTTGTTTG</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>TATTTGTTTG</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -516,10 +546,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>ATAGAGATAACCTTGCCGAT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>CCTTGCCGAT</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -529,10 +564,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CTACAACCTGACATTCCGTC</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>ACATTCCGTC</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -542,10 +582,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>ATCTGGGCTGGACGACCCAT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>GACGACCCAT</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -555,10 +600,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>CACCGACATGGTATATCCCC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>GTATATCCCC</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,10 +618,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>TGAACCGTGGCAAGAGCCAC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>CAAGAGCCAC</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -581,10 +636,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>CCCCGGGGGATATACCATGT</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>TATACCATGT</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
